--- a/Paryż_miejsca_odnosniki.xlsx
+++ b/Paryż_miejsca_odnosniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0CCCE3-3C40-4D5A-8E36-7AC1B0263737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5148E0E4-F2AF-45EB-BF67-608ECA714224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="501">
   <si>
     <t>Miejsce</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Champs de Mars</t>
   </si>
   <si>
-    <t>Pałac Wersalski</t>
-  </si>
-  <si>
     <t>Sacré-Cœur Cathedral</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>['https://www.youtube.com/watch?v=eNOHM_UypBc', 'https://www.youtube.com/watch?v=pB-xXTWzgnk', 'https://www.youtube.com/watch?v=N85CoMQvLDk', 'https://www.youtube.com/watch?v=uoLV_xI7PnE']</t>
   </si>
   <si>
-    <t>['https://www.youtube.com/watch?v=f-tsjV_ydYs', 'https://www.youtube.com/watch?v=1SYziI1df1g']</t>
-  </si>
-  <si>
     <t>['https://www.youtube.com/watch?v=dl-9OYz02rw', 'https://www.youtube.com/watch?v=pB-xXTWzgnk']</t>
   </si>
   <si>
@@ -412,9 +406,6 @@
     <t>Pole Marsowe</t>
   </si>
   <si>
-    <t>Pałac wersalski</t>
-  </si>
-  <si>
     <t>Bazylika Sacré-Cœur</t>
   </si>
   <si>
@@ -580,9 +571,6 @@
     <t>75007 Paris, Francja</t>
   </si>
   <si>
-    <t>Place d'Armes, 78000 Versailles, Francja</t>
-  </si>
-  <si>
     <t>35 Rue du Chevalier de la Barre, 75018 Paris, Francja</t>
   </si>
   <si>
@@ -791,9 +779,6 @@
   </si>
   <si>
     <t>Park</t>
-  </si>
-  <si>
-    <t>Zamek</t>
   </si>
   <si>
     <t>Bazylika</t>
@@ -932,11 +917,6 @@
 Throughout history, the Champ de Mars has witnessed several significant events. For instance, during the French Revolution, it was the site of the Fête de la Fédération on July 14, 179</t>
   </si>
   <si>
-    <t xml:space="preserve">Okazały XVIII-wieczny pałac ze złoconymi komnatami, żyrandolami w Galerii Zwierciadlanej i pokazem fontann.Pałac Wersalski, also known as the Palace of Versailles, is located in the city of Versailles, France, not far from Paris. It was originally built as a hunting lodge for King Louis XIII in 1623 but was substantially expanded by his son, Louis XIV, beginning in 1661. The expansion transformed it into a magnificent residence that symbolized the absolute power of the French monarchy.
-The architecture of the palace, largely attributed to Louis Le Vau and later Jules Hardouin-Mansart, is a prime example of French Baroque style. André Le Nôtre designed the expansive and elaborate gardens featuring perfectly manicured lawns, parterres, fountains, and a canal, which are as much a draw as the palace itself.
-The Palace of Versailles became the main royal residence of France from 1682 until the start of the French Revolution in 1789, under Louis XVI and his queen, Marie Antoinette. The palace is famous for its Hall of Mirrors, the Grand Apartment of the King, and the Queen’s bedchamber. The Hall of Mirrors, a large gallery containing 357 mirrors, is where the Treaty of Versailles was signed in </t>
-  </si>
-  <si>
     <t>Słynny biały kościół z kopułą, ukończony w 1914 roku, z wnętrzem zdobionym mozaikami i witrażami oraz kryptą.Bazylika Sacré-Cœur, also known as the Basilica of the Sacred Heart of Paris, is a prominent Roman Catholic church and minor basilica, dedicated to the Sacred Heart of Jesus. It is located at the summit of the butte Montmartre, the highest point in Paris. The coordinates you provided, 48.88670459999999, 2.3431043, pinpoint its location.
 The construction of Sacré-Cœur began in 1875 and was completed in 1914, with its consecration following after World War I in 1919. The basilica was designed by the French architect Paul Abadie in a Roman-Byzantine style, which contrasts with the predominant Gothic architecture of other famous Parisian churches such as Notre-Dame and Sainte-Chapelle.
 Sacré-Cœur is built of travertine stone quarried in Château-Landon (Seine-et-Marne), which constantly exudes calcite, ensuring that the basilica remains white even with weathering and pollution. One of the most iconic features of the basilica is its large dome, which affords some of the best views of the city of Paris.
@@ -1341,11 +1321,6 @@
 Throughout history, the Champ de Mars has witnessed several significant events. For instance, during the French Revolution, it was the site of the Fête de la Fédération on July 14, 179</t>
   </si>
   <si>
-    <t xml:space="preserve">Pałac Wersalski, also known as the Palace of Versailles, is located in the city of Versailles, France, not far from Paris. It was originally built as a hunting lodge for King Louis XIII in 1623 but was substantially expanded by his son, Louis XIV, beginning in 1661. The expansion transformed it into a magnificent residence that symbolized the absolute power of the French monarchy.
-The architecture of the palace, largely attributed to Louis Le Vau and later Jules Hardouin-Mansart, is a prime example of French Baroque style. André Le Nôtre designed the expansive and elaborate gardens featuring perfectly manicured lawns, parterres, fountains, and a canal, which are as much a draw as the palace itself.
-The Palace of Versailles became the main royal residence of France from 1682 until the start of the French Revolution in 1789, under Louis XVI and his queen, Marie Antoinette. The palace is famous for its Hall of Mirrors, the Grand Apartment of the King, and the Queen’s bedchamber. The Hall of Mirrors, a large gallery containing 357 mirrors, is where the Treaty of Versailles was signed in </t>
-  </si>
-  <si>
     <t>Bazylika Sacré-Cœur, also known as the Basilica of the Sacred Heart of Paris, is a prominent Roman Catholic church and minor basilica, dedicated to the Sacred Heart of Jesus. It is located at the summit of the butte Montmartre, the highest point in Paris. The coordinates you provided, 48.88670459999999, 2.3431043, pinpoint its location.
 The construction of Sacré-Cœur began in 1875 and was completed in 1914, with its consecration following after World War I in 1919. The basilica was designed by the French architect Paul Abadie in a Roman-Byzantine style, which contrasts with the predominant Gothic architecture of other famous Parisian churches such as Notre-Dame and Sainte-Chapelle.
 Sacré-Cœur is built of travertine stone quarried in Château-Landon (Seine-et-Marne), which constantly exudes calcite, ensuring that the basilica remains white even with weathering and pollution. One of the most iconic features of the basilica is its large dome, which affords some of the best views of the city of Paris.
@@ -1753,9 +1728,6 @@
   </si>
   <si>
     <t>Łuk Triumfalny, usytuowany na Placu Charlesa de Gaulle’a, jest nie tylko hołdem dla zwycięstw militarnych, ale także miejscem pamięci i refleksji. Zbudowany na cześć armii Napoleona, obiekt przechwytuje wzrok zarówno swoją monumentalną architekturą, jak i głębią historyczną, którą symbolizuje. Na jego szczyt prowadzi taras widokowy, z którego rozciąga się panorama Paryża, a pod jego sklepieniem znajduje się Grób Nieznanego Żołnierza z wiecznym płomieniem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pałac Wersalski, wywodzący się z niewielkiego pawilonu myśliwskiego, przekształcony został w majestatyczną rezydencję królewską, będącą odzwierciedleniem absolutnej władzy monarchii francuskiej. Jego barokowa architektura i przestronne ogrody z perfekcyjnie przyciętymi trawnikami oraz fontannami przyciągają wzrok równie mocno co wnętrza pałacu, z których na szczególną uwagę zasługuje zwierciadlana Galeria, sceneria podpisania traktatu wersalskiego. </t>
   </si>
   <si>
     <t xml:space="preserve">Bazylika Sacré-Cœur, wyrastająca na szczycie wzgórza Montmartre, prezentuje się w białej okazałości dzięki zastosowaniu trawertynu, który nieustannie wydziela kalcyt, utrzymując nieskazitelną biel budowli. Wzniesiony w stylu romańsko-bizantyjskim, ten rzymskokatolicki kościół z kopułą oferuje malownicze widoki na miasto. </t>
@@ -2300,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2354,13 +2326,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E2">
         <v>48.858370099999988</v>
@@ -2369,7 +2341,7 @@
         <v>2.2944813000000002</v>
       </c>
       <c r="G2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H2">
         <v>4.7</v>
@@ -2378,16 +2350,16 @@
         <v>394918</v>
       </c>
       <c r="J2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2395,13 +2367,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E3">
         <v>48.8606111</v>
@@ -2410,7 +2382,7 @@
         <v>2.3376440000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H3">
         <v>4.7</v>
@@ -2419,16 +2391,16 @@
         <v>312498</v>
       </c>
       <c r="J3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2436,13 +2408,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <v>48.873791699999998</v>
@@ -2451,7 +2423,7 @@
         <v>2.2950275000000002</v>
       </c>
       <c r="G4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H4">
         <v>4.7</v>
@@ -2460,16 +2432,16 @@
         <v>243874</v>
       </c>
       <c r="J4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2477,13 +2449,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <v>48.8558047</v>
@@ -2492,7 +2464,7 @@
         <v>2.2983766000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H5">
         <v>4.5999999999999996</v>
@@ -2501,16 +2473,16 @@
         <v>198388</v>
       </c>
       <c r="J5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M5" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2518,40 +2490,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6">
-        <v>48.804864899999998</v>
+        <v>48.886704599999987</v>
       </c>
       <c r="F6">
-        <v>2.1203553999999998</v>
+        <v>2.3431042999999998</v>
       </c>
       <c r="G6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H6">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="I6">
-        <v>142518</v>
+        <v>133985</v>
       </c>
       <c r="J6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M6" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2559,40 +2531,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E7">
-        <v>48.886704599999987</v>
+        <v>48.8466144</v>
       </c>
       <c r="F7">
-        <v>2.3431042999999998</v>
+        <v>2.3363309000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H7">
         <v>4.7</v>
       </c>
       <c r="I7">
-        <v>133985</v>
+        <v>107574</v>
       </c>
       <c r="J7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2600,40 +2572,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E8">
-        <v>48.8466144</v>
+        <v>48.863491600000003</v>
       </c>
       <c r="F8">
-        <v>2.3363309000000001</v>
+        <v>2.3274943000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H8">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I8">
-        <v>107574</v>
+        <v>104896</v>
       </c>
       <c r="J8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M8" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2641,40 +2613,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E9">
-        <v>48.863491600000003</v>
+        <v>48.859961400000003</v>
       </c>
       <c r="F9">
-        <v>2.3274943000000001</v>
+        <v>2.3265614000000001</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H9">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="I9">
-        <v>104896</v>
+        <v>91164</v>
       </c>
       <c r="J9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M9" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2682,40 +2654,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E10">
-        <v>48.859961400000003</v>
+        <v>48.873622400000002</v>
       </c>
       <c r="F10">
-        <v>2.3265614000000001</v>
+        <v>2.3321098999999998</v>
       </c>
       <c r="G10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H10">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I10">
-        <v>91164</v>
+        <v>74172</v>
       </c>
       <c r="J10" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M10" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2723,40 +2695,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E11">
-        <v>48.873622400000002</v>
+        <v>48.893848899999988</v>
       </c>
       <c r="F11">
-        <v>2.3321098999999998</v>
+        <v>2.3902600000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H11">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I11">
-        <v>74172</v>
+        <v>63573</v>
       </c>
       <c r="J11" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M11" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2764,40 +2736,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E12">
-        <v>48.893848899999988</v>
+        <v>48.865633099999997</v>
       </c>
       <c r="F12">
-        <v>2.3902600000000001</v>
+        <v>2.3212356999999999</v>
       </c>
       <c r="G12" t="s">
         <v>256</v>
       </c>
       <c r="H12">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="I12">
-        <v>63573</v>
+        <v>62650</v>
       </c>
       <c r="J12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M12" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2805,40 +2777,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E13">
-        <v>48.865633099999997</v>
+        <v>48.860641999999999</v>
       </c>
       <c r="F13">
-        <v>2.3212356999999999</v>
+        <v>2.3522449999999999</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H13">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I13">
-        <v>62650</v>
+        <v>56007</v>
       </c>
       <c r="J13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M13" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2846,40 +2818,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E14">
-        <v>48.860641999999999</v>
+        <v>48.846221800000002</v>
       </c>
       <c r="F14">
-        <v>2.3522449999999999</v>
+        <v>2.3464138000000001</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H14">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I14">
-        <v>56007</v>
+        <v>55422</v>
       </c>
       <c r="J14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M14" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2887,40 +2859,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E15">
-        <v>48.846221800000002</v>
+        <v>48.852968199999999</v>
       </c>
       <c r="F15">
-        <v>2.3464138000000001</v>
+        <v>2.3499021</v>
       </c>
       <c r="G15" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H15">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="I15">
-        <v>55422</v>
+        <v>50517</v>
       </c>
       <c r="J15" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M15" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2928,40 +2900,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E16">
-        <v>48.852968199999999</v>
+        <v>48.871969700000001</v>
       </c>
       <c r="F16">
-        <v>2.3499021</v>
+        <v>2.3316013999999998</v>
       </c>
       <c r="G16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H16">
         <v>4.7</v>
       </c>
       <c r="I16">
-        <v>50517</v>
+        <v>44689</v>
       </c>
       <c r="J16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M16" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -2969,40 +2941,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E17">
-        <v>48.871969700000001</v>
+        <v>48.855375000000002</v>
       </c>
       <c r="F17">
-        <v>2.3316013999999998</v>
+        <v>2.3449608999999998</v>
       </c>
       <c r="G17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H17">
         <v>4.7</v>
       </c>
       <c r="I17">
-        <v>44689</v>
+        <v>39908</v>
       </c>
       <c r="J17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M17" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -3010,40 +2982,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E18">
-        <v>48.855375000000002</v>
+        <v>48.863899500000002</v>
       </c>
       <c r="F18">
-        <v>2.3449608999999998</v>
+        <v>2.3135590000000001</v>
       </c>
       <c r="G18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H18">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I18">
-        <v>39908</v>
+        <v>33719</v>
       </c>
       <c r="J18" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M18" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -3051,40 +3023,40 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E19">
-        <v>48.863899500000002</v>
+        <v>48.882651699999997</v>
       </c>
       <c r="F19">
-        <v>2.3135590000000001</v>
+        <v>2.3374635000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H19">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I19">
-        <v>33719</v>
+        <v>28816</v>
       </c>
       <c r="J19" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M19" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -3092,40 +3064,40 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E20">
-        <v>48.882651699999997</v>
+        <v>48.881939799999998</v>
       </c>
       <c r="F20">
-        <v>2.3374635000000001</v>
+        <v>2.3344839999999998</v>
       </c>
       <c r="G20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H20">
         <v>4.5999999999999996</v>
       </c>
       <c r="I20">
-        <v>28816</v>
+        <v>23830</v>
       </c>
       <c r="J20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M20" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -3133,40 +3105,40 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E21">
-        <v>48.881939799999998</v>
+        <v>48.853182699999998</v>
       </c>
       <c r="F21">
-        <v>2.3344839999999998</v>
+        <v>2.3691442999999999</v>
       </c>
       <c r="G21" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="H21">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="I21">
-        <v>23830</v>
+        <v>21594</v>
       </c>
       <c r="J21" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M21" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -3174,40 +3146,40 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E22">
-        <v>48.853182699999998</v>
+        <v>48.852563199999999</v>
       </c>
       <c r="F22">
-        <v>2.3691442999999999</v>
+        <v>2.3471302999999999</v>
       </c>
       <c r="G22" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H22">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I22">
-        <v>21594</v>
+        <v>20984</v>
       </c>
       <c r="J22" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M22" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -3215,40 +3187,40 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E23">
-        <v>48.852563199999999</v>
+        <v>48.871933299999988</v>
       </c>
       <c r="F23">
-        <v>2.3471302999999999</v>
+        <v>2.3430534999999999</v>
       </c>
       <c r="G23" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H23">
-        <v>4.5999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I23">
-        <v>20984</v>
+        <v>20975</v>
       </c>
       <c r="J23" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M23" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -3256,40 +3228,40 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E24">
-        <v>48.871933299999988</v>
+        <v>48.863489299999998</v>
       </c>
       <c r="F24">
-        <v>2.3430534999999999</v>
+        <v>2.3017994000000002</v>
       </c>
       <c r="G24" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H24">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="I24">
-        <v>20975</v>
+        <v>19438</v>
       </c>
       <c r="J24" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M24" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -3297,40 +3269,40 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E25">
-        <v>48.863489299999998</v>
+        <v>48.863788399999997</v>
       </c>
       <c r="F25">
-        <v>2.3017994000000002</v>
+        <v>2.3226724000000001</v>
       </c>
       <c r="G25" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="H25">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I25">
-        <v>19438</v>
+        <v>17803</v>
       </c>
       <c r="J25" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M25" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -3338,40 +3310,40 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E26">
-        <v>48.863788399999997</v>
+        <v>48.866047899999998</v>
       </c>
       <c r="F26">
-        <v>2.3226724000000001</v>
+        <v>2.3145896000000001</v>
       </c>
       <c r="G26" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H26">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="I26">
-        <v>17803</v>
+        <v>17669</v>
       </c>
       <c r="J26" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M26" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -3379,40 +3351,40 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E27">
-        <v>48.866047899999998</v>
+        <v>48.855307199999999</v>
       </c>
       <c r="F27">
-        <v>2.3145896000000001</v>
+        <v>2.3158354000000001</v>
       </c>
       <c r="G27" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H27">
         <v>4.7</v>
       </c>
       <c r="I27">
-        <v>17669</v>
+        <v>16994</v>
       </c>
       <c r="J27" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M27" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -3420,40 +3392,40 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E28">
-        <v>48.855307199999999</v>
+        <v>48.870838999999997</v>
       </c>
       <c r="F28">
-        <v>2.3158354000000001</v>
+        <v>2.3031899999999998</v>
       </c>
       <c r="G28" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H28">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I28">
-        <v>16994</v>
+        <v>14222</v>
       </c>
       <c r="J28" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M28" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -3461,40 +3433,40 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E29">
-        <v>48.870838999999997</v>
+        <v>48.8650898</v>
       </c>
       <c r="F29">
-        <v>2.3031899999999998</v>
+        <v>2.3284433999999998</v>
       </c>
       <c r="G29" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H29">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I29">
-        <v>14222</v>
+        <v>13918</v>
       </c>
       <c r="J29" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M29" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -3502,40 +3474,40 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E30">
-        <v>48.8650898</v>
+        <v>48.857406699999999</v>
       </c>
       <c r="F30">
-        <v>2.3284433999999998</v>
+        <v>2.3591962</v>
       </c>
       <c r="G30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H30">
         <v>4.3</v>
       </c>
       <c r="I30">
-        <v>13918</v>
+        <v>13070</v>
       </c>
       <c r="J30" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M30" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -3543,40 +3515,40 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E31">
-        <v>48.857406699999999</v>
+        <v>48.842137899999997</v>
       </c>
       <c r="F31">
-        <v>2.3591962</v>
+        <v>2.3219514000000001</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H31">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I31">
-        <v>13070</v>
+        <v>12667</v>
       </c>
       <c r="J31" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M31" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -3584,40 +3556,40 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E32">
-        <v>48.842137899999997</v>
+        <v>48.859877500000003</v>
       </c>
       <c r="F32">
-        <v>2.3219514000000001</v>
+        <v>2.362285</v>
       </c>
       <c r="G32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H32">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I32">
-        <v>12667</v>
+        <v>12160</v>
       </c>
       <c r="J32" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M32" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -3625,40 +3597,40 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E33">
-        <v>48.859877500000003</v>
+        <v>48.863517599999987</v>
       </c>
       <c r="F33">
-        <v>2.362285</v>
+        <v>2.3437220999999999</v>
       </c>
       <c r="G33" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H33">
         <v>4.3</v>
       </c>
       <c r="I33">
-        <v>12160</v>
+        <v>12150</v>
       </c>
       <c r="J33" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M33" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -3666,40 +3638,40 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E34">
-        <v>48.863517599999987</v>
+        <v>48.884123199999998</v>
       </c>
       <c r="F34">
-        <v>2.3437220999999999</v>
+        <v>2.3322519000000002</v>
       </c>
       <c r="G34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H34">
         <v>4.3</v>
       </c>
       <c r="I34">
-        <v>12150</v>
+        <v>11036</v>
       </c>
       <c r="J34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M34" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -3707,40 +3679,40 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E35">
-        <v>48.884123199999998</v>
+        <v>48.844273700000002</v>
       </c>
       <c r="F35">
-        <v>2.3322519000000002</v>
+        <v>2.3604099999999999</v>
       </c>
       <c r="G35" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H35">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I35">
-        <v>11036</v>
+        <v>10706</v>
       </c>
       <c r="J35" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M35" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -3748,40 +3720,40 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E36">
-        <v>48.844273700000002</v>
+        <v>48.8541588</v>
       </c>
       <c r="F36">
-        <v>2.3604099999999999</v>
+        <v>2.3326045999999998</v>
       </c>
       <c r="G36" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H36">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I36">
-        <v>10706</v>
+        <v>9982</v>
       </c>
       <c r="J36" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M36" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -3789,40 +3761,40 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E37">
-        <v>48.8541588</v>
+        <v>48.8560114</v>
       </c>
       <c r="F37">
-        <v>2.3326045999999998</v>
+        <v>2.3454953000000001</v>
       </c>
       <c r="G37" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H37">
-        <v>3.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I37">
-        <v>9982</v>
+        <v>9273</v>
       </c>
       <c r="J37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M37" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -3830,40 +3802,40 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E38">
-        <v>48.8560114</v>
+        <v>48.8338325</v>
       </c>
       <c r="F38">
-        <v>2.3454953000000001</v>
+        <v>2.3324221999999999</v>
       </c>
       <c r="G38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H38">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>9273</v>
+        <v>8669</v>
       </c>
       <c r="J38" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M38" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -3871,40 +3843,40 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E39">
-        <v>48.8338325</v>
+        <v>48.874782000000003</v>
       </c>
       <c r="F39">
-        <v>2.3324221999999999</v>
+        <v>2.3401412000000001</v>
       </c>
       <c r="G39" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="I39">
-        <v>8669</v>
+        <v>7694</v>
       </c>
       <c r="J39" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M39" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -3912,40 +3884,40 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D40" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E40">
-        <v>48.874782000000003</v>
+        <v>48.852500300000003</v>
       </c>
       <c r="F40">
-        <v>2.3401412000000001</v>
+        <v>2.3703422000000001</v>
       </c>
       <c r="G40" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H40">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I40">
-        <v>7694</v>
+        <v>7449</v>
       </c>
       <c r="J40" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M40" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -3953,40 +3925,40 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E41">
-        <v>48.852500300000003</v>
+        <v>48.860768</v>
       </c>
       <c r="F41">
-        <v>2.3703422000000001</v>
+        <v>2.3411789999999999</v>
       </c>
       <c r="G41" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="H41">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="I41">
-        <v>7449</v>
+        <v>6452</v>
       </c>
       <c r="J41" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M41" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3994,40 +3966,40 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E42">
-        <v>48.860768</v>
+        <v>48.842793299999997</v>
       </c>
       <c r="F42">
-        <v>2.3411789999999999</v>
+        <v>2.3495547000000001</v>
       </c>
       <c r="G42" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H42">
         <v>4.5</v>
       </c>
       <c r="I42">
-        <v>6452</v>
+        <v>6385</v>
       </c>
       <c r="J42" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M42" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -4035,40 +4007,40 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E43">
-        <v>48.842793299999997</v>
+        <v>48.870563500000003</v>
       </c>
       <c r="F43">
-        <v>2.3495547000000001</v>
+        <v>2.3532275</v>
       </c>
       <c r="G43" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="H43">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I43">
-        <v>6385</v>
+        <v>6177</v>
       </c>
       <c r="J43" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M43" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -4076,40 +4048,40 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E44">
-        <v>48.870563500000003</v>
+        <v>48.868141999999999</v>
       </c>
       <c r="F44">
-        <v>2.3532275</v>
+        <v>2.3027970999999998</v>
       </c>
       <c r="G44" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="H44">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="I44">
-        <v>6177</v>
+        <v>6026</v>
       </c>
       <c r="J44" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M44" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -4117,40 +4089,40 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E45">
-        <v>48.868141999999999</v>
+        <v>48.871103299999987</v>
       </c>
       <c r="F45">
-        <v>2.3027970999999998</v>
+        <v>2.3336399999999999</v>
       </c>
       <c r="G45" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="H45">
         <v>4.2</v>
       </c>
       <c r="I45">
-        <v>6026</v>
+        <v>5964</v>
       </c>
       <c r="J45" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M45" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -4158,40 +4130,40 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E46">
-        <v>48.871103299999987</v>
+        <v>48.864165999999997</v>
       </c>
       <c r="F46">
-        <v>2.3336399999999999</v>
+        <v>2.3504260000000001</v>
       </c>
       <c r="G46" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H46">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I46">
-        <v>5964</v>
+        <v>5379</v>
       </c>
       <c r="J46" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M46" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -4202,37 +4174,37 @@
         <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E47">
-        <v>48.864165999999997</v>
+        <v>48.872424100000003</v>
       </c>
       <c r="F47">
-        <v>2.3504260000000001</v>
+        <v>2.3649708999999999</v>
       </c>
       <c r="G47" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H47">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I47">
-        <v>5379</v>
+        <v>5172</v>
       </c>
       <c r="J47" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M47" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -4240,40 +4212,40 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
         <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E48">
-        <v>48.872424100000003</v>
+        <v>48.858658200000001</v>
       </c>
       <c r="F48">
-        <v>2.3649708999999999</v>
+        <v>2.3288088</v>
       </c>
       <c r="G48" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="H48">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I48">
-        <v>5172</v>
+        <v>4680</v>
       </c>
       <c r="J48" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -4281,40 +4253,40 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E49">
-        <v>48.858658200000001</v>
+        <v>48.884585100000002</v>
       </c>
       <c r="F49">
-        <v>2.3288088</v>
+        <v>2.3450953000000001</v>
       </c>
       <c r="G49" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H49">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I49">
-        <v>4680</v>
+        <v>4105</v>
       </c>
       <c r="J49" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M49" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -4322,40 +4294,40 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E50">
-        <v>48.884585100000002</v>
+        <v>48.858068499999987</v>
       </c>
       <c r="F50">
-        <v>2.3450953000000001</v>
+        <v>2.3489072000000002</v>
       </c>
       <c r="G50" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H50">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="I50">
-        <v>4105</v>
+        <v>4068</v>
       </c>
       <c r="J50" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M50" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -4363,40 +4335,40 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E51">
-        <v>48.858068499999987</v>
+        <v>48.853381900000002</v>
       </c>
       <c r="F51">
-        <v>2.3489072000000002</v>
+        <v>2.3389251999999998</v>
       </c>
       <c r="G51" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="H51">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I51">
-        <v>4068</v>
+        <v>3988</v>
       </c>
       <c r="J51" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -4404,40 +4376,40 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E52">
-        <v>48.853381900000002</v>
+        <v>48.854825599999998</v>
       </c>
       <c r="F52">
-        <v>2.3389251999999998</v>
+        <v>2.3661911</v>
       </c>
       <c r="G52" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H52">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="I52">
-        <v>3988</v>
+        <v>3646</v>
       </c>
       <c r="J52" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M52" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -4445,40 +4417,40 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E53">
-        <v>48.854825599999998</v>
+        <v>48.848271099999998</v>
       </c>
       <c r="F53">
-        <v>2.3661911</v>
+        <v>2.3372934000000001</v>
       </c>
       <c r="G53" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H53">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I53">
-        <v>3646</v>
+        <v>3540</v>
       </c>
       <c r="J53" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -4486,40 +4458,40 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
         <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E54">
-        <v>48.848271099999998</v>
+        <v>48.887709000000001</v>
       </c>
       <c r="F54">
-        <v>2.3372934000000001</v>
+        <v>2.3406731000000001</v>
       </c>
       <c r="G54" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="H54">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I54">
-        <v>3540</v>
+        <v>3488</v>
       </c>
       <c r="J54" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M54" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -4527,40 +4499,40 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E55">
-        <v>48.887709000000001</v>
+        <v>48.872960199999987</v>
       </c>
       <c r="F55">
-        <v>2.3406731000000001</v>
+        <v>2.2978526000000001</v>
       </c>
       <c r="G55" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="H55">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I55">
-        <v>3488</v>
+        <v>3354</v>
       </c>
       <c r="J55" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M55" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -4568,40 +4540,40 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E56">
-        <v>48.872960199999987</v>
+        <v>48.871245299999998</v>
       </c>
       <c r="F56">
-        <v>2.2978526000000001</v>
+        <v>2.3628903999999999</v>
       </c>
       <c r="G56" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="H56">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I56">
-        <v>3354</v>
+        <v>3192</v>
       </c>
       <c r="J56" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M56" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -4609,40 +4581,40 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E57">
-        <v>48.871245299999998</v>
+        <v>48.861616400000003</v>
       </c>
       <c r="F57">
-        <v>2.3628903999999999</v>
+        <v>2.3443637000000002</v>
       </c>
       <c r="G57" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="H57">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="I57">
-        <v>3192</v>
+        <v>2984</v>
       </c>
       <c r="J57" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M57" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -4650,40 +4622,40 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E58">
-        <v>48.861616400000003</v>
+        <v>48.851486800000004</v>
       </c>
       <c r="F58">
-        <v>2.3443637000000002</v>
+        <v>2.3327619999999998</v>
       </c>
       <c r="G58" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H58">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I58">
-        <v>2984</v>
+        <v>2878</v>
       </c>
       <c r="J58" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M58" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -4691,40 +4663,40 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E59">
-        <v>48.851486800000004</v>
+        <v>48.863024099999997</v>
       </c>
       <c r="F59">
-        <v>2.3327619999999998</v>
+        <v>2.3619895</v>
       </c>
       <c r="G59" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="H59">
         <v>4.4000000000000004</v>
       </c>
       <c r="I59">
-        <v>2878</v>
+        <v>2827</v>
       </c>
       <c r="J59" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M59" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -4732,40 +4704,40 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E60">
-        <v>48.863024099999997</v>
+        <v>48.886511900000002</v>
       </c>
       <c r="F60">
-        <v>2.3619895</v>
+        <v>2.3398718000000001</v>
       </c>
       <c r="G60" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="H60">
         <v>4.4000000000000004</v>
       </c>
       <c r="I60">
-        <v>2827</v>
+        <v>2610</v>
       </c>
       <c r="J60" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M60" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -4773,40 +4745,40 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E61">
-        <v>48.886511900000002</v>
+        <v>48.863055600000003</v>
       </c>
       <c r="F61">
-        <v>2.3398718000000001</v>
+        <v>2.3333333000000001</v>
       </c>
       <c r="G61" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="H61">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I61">
-        <v>2610</v>
+        <v>2536</v>
       </c>
       <c r="J61" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M61" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -4814,40 +4786,40 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E62">
-        <v>48.863055600000003</v>
+        <v>48.863612000000003</v>
       </c>
       <c r="F62">
-        <v>2.3333333000000001</v>
+        <v>2.3370335999999998</v>
       </c>
       <c r="G62" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="H62">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="I62">
-        <v>2536</v>
+        <v>2527</v>
       </c>
       <c r="J62" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M62" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -4855,40 +4827,40 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E63">
-        <v>48.863612000000003</v>
+        <v>48.8498436</v>
       </c>
       <c r="F63">
-        <v>2.3370335999999998</v>
+        <v>2.3482750999999999</v>
       </c>
       <c r="G63" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H63">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I63">
-        <v>2527</v>
+        <v>2424</v>
       </c>
       <c r="J63" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -4899,37 +4871,37 @@
         <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E64">
-        <v>48.8498436</v>
+        <v>48.863609699999998</v>
       </c>
       <c r="F64">
-        <v>2.3482750999999999</v>
+        <v>2.3636335000000002</v>
       </c>
       <c r="G64" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H64">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I64">
-        <v>2424</v>
+        <v>2366</v>
       </c>
       <c r="J64" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M64" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -4937,40 +4909,40 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E65">
-        <v>48.863609699999998</v>
+        <v>48.848925700000002</v>
       </c>
       <c r="F65">
-        <v>2.3636335000000002</v>
+        <v>2.3572313</v>
       </c>
       <c r="G65" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="H65">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="I65">
-        <v>2366</v>
+        <v>2147</v>
       </c>
       <c r="J65" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M65" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -4978,40 +4950,40 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D66" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E66">
-        <v>48.848925700000002</v>
+        <v>48.856330200000002</v>
       </c>
       <c r="F66">
-        <v>2.3572313</v>
+        <v>2.3655661000000001</v>
       </c>
       <c r="G66" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="H66">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I66">
-        <v>2147</v>
+        <v>1998</v>
       </c>
       <c r="J66" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M66" t="s">
-        <v>502</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -5019,40 +4991,40 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E67">
-        <v>48.856330200000002</v>
+        <v>48.868805899999998</v>
       </c>
       <c r="F67">
-        <v>2.3655661000000001</v>
+        <v>2.3298044</v>
       </c>
       <c r="G67" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="H67">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I67">
-        <v>1998</v>
+        <v>1651</v>
       </c>
       <c r="J67" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M67" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -5060,40 +5032,40 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E68">
-        <v>48.868805899999998</v>
+        <v>48.880403600000001</v>
       </c>
       <c r="F68">
-        <v>2.3298044</v>
+        <v>2.3348783000000002</v>
       </c>
       <c r="G68" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H68">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="I68">
-        <v>1651</v>
+        <v>1500</v>
       </c>
       <c r="J68" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M68" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -5101,40 +5073,40 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E69">
-        <v>48.880403600000001</v>
+        <v>48.851731200000003</v>
       </c>
       <c r="F69">
-        <v>2.3348783000000002</v>
+        <v>2.3494362</v>
       </c>
       <c r="G69" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="H69">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I69">
-        <v>1500</v>
+        <v>1407</v>
       </c>
       <c r="J69" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M69" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -5142,40 +5114,40 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E70">
-        <v>48.851731200000003</v>
+        <v>48.850836100000002</v>
       </c>
       <c r="F70">
-        <v>2.3494362</v>
+        <v>2.3461227</v>
       </c>
       <c r="G70" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="H70">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="I70">
-        <v>1407</v>
+        <v>1272</v>
       </c>
       <c r="J70" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M70" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -5186,37 +5158,37 @@
         <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E71">
-        <v>48.850836100000002</v>
+        <v>48.884467899999997</v>
       </c>
       <c r="F71">
-        <v>2.3461227</v>
+        <v>2.341091</v>
       </c>
       <c r="G71" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="H71">
         <v>4.2</v>
       </c>
       <c r="I71">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="J71" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M71" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -5224,81 +5196,40 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E72">
-        <v>48.884467899999997</v>
+        <v>48.8648095</v>
       </c>
       <c r="F72">
-        <v>2.341091</v>
+        <v>2.3728563</v>
       </c>
       <c r="G72" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H72">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I72">
-        <v>1265</v>
+        <v>1026</v>
       </c>
       <c r="J72" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M72" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" t="s">
-        <v>252</v>
-      </c>
-      <c r="E73">
-        <v>48.8648095</v>
-      </c>
-      <c r="F73">
-        <v>2.3728563</v>
-      </c>
-      <c r="G73" t="s">
-        <v>281</v>
-      </c>
-      <c r="H73">
-        <v>4.3</v>
-      </c>
-      <c r="I73">
-        <v>1026</v>
-      </c>
-      <c r="J73" t="s">
-        <v>364</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" t="s">
-        <v>436</v>
-      </c>
-      <c r="M73" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
